--- a/result/3_pred.xlsx
+++ b/result/3_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>540700.5698000001</v>
+        <v>540805.8098</v>
       </c>
       <c r="B4" t="n">
         <v>2385125.0996</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>540805.8098</v>
+        <v>540737.2098</v>
       </c>
       <c r="B5" t="n">
         <v>2385125.0996</v>
@@ -479,55 +479,55 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>540737.2098</v>
+        <v>540621.683</v>
       </c>
       <c r="B6" t="n">
-        <v>2385125.0996</v>
+        <v>2384969.9372</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>540805.8098</v>
+        <v>540621.683</v>
       </c>
       <c r="B7" t="n">
-        <v>2385125.0996</v>
+        <v>2385055.6833</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>540621.683</v>
+        <v>540659.0098</v>
       </c>
       <c r="B8" t="n">
-        <v>2384969.9372</v>
+        <v>2385055.7696</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>540621.683</v>
+        <v>540659.0098</v>
       </c>
       <c r="B9" t="n">
-        <v>2385055.6833</v>
+        <v>2384969.9705</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>540659.0098</v>
+        <v>540666.2698</v>
       </c>
       <c r="B10" t="n">
-        <v>2385055.7696</v>
+        <v>2385125.0996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>540659.0098</v>
+        <v>540666.2698</v>
       </c>
       <c r="B11" t="n">
-        <v>2384969.9705</v>
+        <v>2385125.0996</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>540666.2698</v>
+        <v>540771.5098</v>
       </c>
       <c r="B12" t="n">
         <v>2385125.0996</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>540666.2698</v>
+        <v>540771.5098</v>
       </c>
       <c r="B13" t="n">
         <v>2385125.0996</v>
@@ -543,26 +543,26 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>540771.5098</v>
+        <v>540621.683</v>
       </c>
       <c r="B14" t="n">
-        <v>2385125.0996</v>
+        <v>2385012.81025</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>540771.5098</v>
+        <v>540640.3463999999</v>
       </c>
       <c r="B15" t="n">
-        <v>2385125.0996</v>
+        <v>2385055.72645</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>540621.683</v>
+        <v>540659.0098</v>
       </c>
       <c r="B16" t="n">
-        <v>2385012.81025</v>
+        <v>2385012.87005</v>
       </c>
     </row>
     <row r="17">
@@ -570,695 +570,383 @@
         <v>540640.3463999999</v>
       </c>
       <c r="B17" t="n">
-        <v>2385055.72645</v>
+        <v>2384969.95385</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>540659.0098</v>
+        <v>540718.4797</v>
       </c>
       <c r="B18" t="n">
-        <v>2385012.87005</v>
+        <v>2385080.3498</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>540640.3463999999</v>
+        <v>540742.4797</v>
       </c>
       <c r="B19" t="n">
-        <v>2384969.95385</v>
+        <v>2385080.3498</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>540718.4797</v>
+        <v>540694.4797</v>
       </c>
       <c r="B20" t="n">
-        <v>2385075.8498</v>
+        <v>2385080.3498</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>540748.4797</v>
+        <v>540718.4797</v>
       </c>
       <c r="B21" t="n">
-        <v>2385075.8498</v>
+        <v>2385164.3498</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>540733.4797</v>
+        <v>540754.4797</v>
       </c>
       <c r="B22" t="n">
-        <v>2385075.8498</v>
+        <v>2385164.3498</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>540703.4797</v>
+        <v>540682.4797</v>
       </c>
       <c r="B23" t="n">
-        <v>2385075.8498</v>
+        <v>2385164.3498</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>540823.4797</v>
+        <v>540790.4797</v>
       </c>
       <c r="B24" t="n">
-        <v>2385083.3498</v>
+        <v>2385164.3498</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>540785.9797</v>
+        <v>540646.4797</v>
       </c>
       <c r="B25" t="n">
-        <v>2385083.3498</v>
+        <v>2385164.3498</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>540763.4797</v>
+        <v>540622.4797</v>
       </c>
       <c r="B26" t="n">
-        <v>2385083.3498</v>
+        <v>2385164.3498</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>540800.9797</v>
+        <v>540814.4797</v>
       </c>
       <c r="B27" t="n">
-        <v>2385083.3498</v>
+        <v>2385164.3498</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>540688.4797</v>
+        <v>540754.4797</v>
       </c>
       <c r="B28" t="n">
-        <v>2385083.3498</v>
+        <v>2385092.3498</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>540718.4797</v>
+        <v>540682.4797</v>
       </c>
       <c r="B29" t="n">
-        <v>2385090.8498</v>
+        <v>2385092.3498</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>540613.4797</v>
+        <v>540790.4797</v>
       </c>
       <c r="B30" t="n">
-        <v>2385158.3498</v>
+        <v>2385092.3498</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>540718.4797</v>
+        <v>540646.4797</v>
       </c>
       <c r="B31" t="n">
-        <v>2385158.3498</v>
+        <v>2385092.3498</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>540823.4797</v>
+        <v>540622.4797</v>
       </c>
       <c r="B32" t="n">
-        <v>2385158.3498</v>
+        <v>2385092.3498</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>540755.9797</v>
+        <v>540814.4797</v>
       </c>
       <c r="B33" t="n">
-        <v>2385158.3498</v>
+        <v>2385092.3498</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>540650.9797</v>
+        <v>540730.4797</v>
       </c>
       <c r="B34" t="n">
-        <v>2385158.3498</v>
+        <v>2385092.3498</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>540680.9797</v>
+        <v>540706.4797</v>
       </c>
       <c r="B35" t="n">
-        <v>2385158.3498</v>
+        <v>2385092.3498</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>540785.9797</v>
+        <v>540658.4797</v>
       </c>
       <c r="B36" t="n">
-        <v>2385158.3498</v>
+        <v>2385152.3498</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>540613.4797</v>
+        <v>540778.4797</v>
       </c>
       <c r="B37" t="n">
-        <v>2385090.8498</v>
+        <v>2385152.3498</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>540748.4797</v>
+        <v>540730.4797</v>
       </c>
       <c r="B38" t="n">
-        <v>2385090.8498</v>
+        <v>2385152.3498</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>540650.9797</v>
+        <v>540694.4797</v>
       </c>
       <c r="B39" t="n">
-        <v>2385090.8498</v>
+        <v>2385152.3498</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>540673.4797</v>
+        <v>540718.4797</v>
       </c>
       <c r="B40" t="n">
-        <v>2385090.8498</v>
+        <v>2385104.3498</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>540635.9797</v>
+        <v>540670.4797</v>
       </c>
       <c r="B41" t="n">
-        <v>2385090.8498</v>
+        <v>2385080.3498</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>540733.4797</v>
+        <v>540634.4797</v>
       </c>
       <c r="B42" t="n">
-        <v>2385090.8498</v>
+        <v>2385080.3498</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>540703.4797</v>
+        <v>540718.4797</v>
       </c>
       <c r="B43" t="n">
-        <v>2385090.8498</v>
+        <v>2385140.3498</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>540800.9797</v>
+        <v>540634.4797</v>
       </c>
       <c r="B44" t="n">
-        <v>2385158.3498</v>
+        <v>2385032.3498</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>540695.9797</v>
+        <v>540754.4797</v>
       </c>
       <c r="B45" t="n">
-        <v>2385158.3498</v>
+        <v>2385140.3498</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>540635.9797</v>
+        <v>540670.4797</v>
       </c>
       <c r="B46" t="n">
-        <v>2385158.3498</v>
+        <v>2385032.3498</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>540740.9797</v>
+        <v>540682.4797</v>
       </c>
       <c r="B47" t="n">
-        <v>2385158.3498</v>
+        <v>2385140.3498</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>540770.9797</v>
+        <v>540658.4797</v>
       </c>
       <c r="B48" t="n">
-        <v>2385158.3498</v>
+        <v>2385104.3498</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>540665.9797</v>
+        <v>540778.4797</v>
       </c>
       <c r="B49" t="n">
-        <v>2385158.3498</v>
+        <v>2385104.3498</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>540823.4797</v>
+        <v>540694.4797</v>
       </c>
       <c r="B50" t="n">
-        <v>2385098.3498</v>
+        <v>2385104.3498</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>540785.9797</v>
+        <v>540790.4797</v>
       </c>
       <c r="B51" t="n">
-        <v>2385098.3498</v>
+        <v>2385140.3498</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>540688.4797</v>
+        <v>540742.4797</v>
       </c>
       <c r="B52" t="n">
-        <v>2385098.3498</v>
+        <v>2385104.3498</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>540763.4797</v>
+        <v>540646.4797</v>
       </c>
       <c r="B53" t="n">
-        <v>2385098.3498</v>
+        <v>2385140.3498</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>540800.9797</v>
+        <v>540634.4797</v>
       </c>
       <c r="B54" t="n">
-        <v>2385098.3498</v>
+        <v>2385104.3498</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>540613.4797</v>
+        <v>540634.4797</v>
       </c>
       <c r="B55" t="n">
-        <v>2385105.8498</v>
+        <v>2384996.3498</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>540718.4797</v>
+        <v>540670.4797</v>
       </c>
       <c r="B56" t="n">
-        <v>2385105.8498</v>
+        <v>2384996.3498</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>540613.4797</v>
+        <v>540754.4797</v>
       </c>
       <c r="B57" t="n">
-        <v>2385143.3498</v>
+        <v>2385116.3498</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>540718.4797</v>
+        <v>540682.4797</v>
       </c>
       <c r="B58" t="n">
-        <v>2385143.3498</v>
+        <v>2385116.3498</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>540823.4797</v>
+        <v>540622.4797</v>
       </c>
       <c r="B59" t="n">
-        <v>2385143.3498</v>
+        <v>2385140.3498</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>540673.4797</v>
+        <v>540790.4797</v>
       </c>
       <c r="B60" t="n">
-        <v>2385075.8498</v>
+        <v>2385116.3498</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>540650.9797</v>
+        <v>540814.4797</v>
       </c>
       <c r="B61" t="n">
-        <v>2385105.8498</v>
+        <v>2385140.3498</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>540673.4797</v>
+        <v>540646.4797</v>
       </c>
       <c r="B62" t="n">
-        <v>2384993.3498</v>
+        <v>2385116.3498</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>540755.9797</v>
+        <v>540646.4797</v>
       </c>
       <c r="B63" t="n">
-        <v>2385143.3498</v>
+        <v>2384984.3498</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>540650.9797</v>
+        <v>540646.4797</v>
       </c>
       <c r="B64" t="n">
-        <v>2385143.3498</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>540635.9797</v>
-      </c>
-      <c r="B65" t="n">
-        <v>2384993.3498</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>540643.4797</v>
-      </c>
-      <c r="B66" t="n">
-        <v>2385030.8498</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>540680.9797</v>
-      </c>
-      <c r="B67" t="n">
-        <v>2385143.3498</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>540785.9797</v>
-      </c>
-      <c r="B68" t="n">
-        <v>2385143.3498</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>540673.4797</v>
-      </c>
-      <c r="B69" t="n">
-        <v>2385030.8498</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>540748.4797</v>
-      </c>
-      <c r="B70" t="n">
-        <v>2385105.8498</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>540613.4797</v>
-      </c>
-      <c r="B71" t="n">
-        <v>2385075.8498</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>540650.9797</v>
-      </c>
-      <c r="B72" t="n">
-        <v>2385075.8498</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>540628.4797</v>
-      </c>
-      <c r="B73" t="n">
-        <v>2385075.8498</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>540823.4797</v>
-      </c>
-      <c r="B74" t="n">
-        <v>2385113.3498</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>540613.4797</v>
-      </c>
-      <c r="B75" t="n">
-        <v>2384993.3498</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>540650.9797</v>
-      </c>
-      <c r="B76" t="n">
-        <v>2384993.3498</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>540673.4797</v>
-      </c>
-      <c r="B77" t="n">
-        <v>2385105.8498</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>540613.4797</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2385030.8498</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>540635.9797</v>
-      </c>
-      <c r="B79" t="n">
-        <v>2385105.8498</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>540733.4797</v>
-      </c>
-      <c r="B80" t="n">
-        <v>2385105.8498</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>540703.4797</v>
-      </c>
-      <c r="B81" t="n">
-        <v>2385105.8498</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>540628.4797</v>
-      </c>
-      <c r="B82" t="n">
-        <v>2385030.8498</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>540613.4797</v>
-      </c>
-      <c r="B83" t="n">
-        <v>2385120.8498</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>540800.9797</v>
-      </c>
-      <c r="B84" t="n">
-        <v>2385143.3498</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>540695.9797</v>
-      </c>
-      <c r="B85" t="n">
-        <v>2385143.3498</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>540635.9797</v>
-      </c>
-      <c r="B86" t="n">
-        <v>2385143.3498</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>540785.9797</v>
-      </c>
-      <c r="B87" t="n">
-        <v>2385113.3498</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>540740.9797</v>
-      </c>
-      <c r="B88" t="n">
-        <v>2385143.3498</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>540718.4797</v>
-      </c>
-      <c r="B89" t="n">
-        <v>2385120.8498</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>540770.9797</v>
-      </c>
-      <c r="B90" t="n">
-        <v>2385143.3498</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>540665.9797</v>
-      </c>
-      <c r="B91" t="n">
-        <v>2385143.3498</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>540658.4797</v>
-      </c>
-      <c r="B92" t="n">
-        <v>2385030.8498</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>540823.4797</v>
-      </c>
-      <c r="B93" t="n">
-        <v>2385128.3498</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>540673.4797</v>
-      </c>
-      <c r="B94" t="n">
-        <v>2385045.8498</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>540688.4797</v>
-      </c>
-      <c r="B95" t="n">
-        <v>2385113.3498</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>540673.4797</v>
-      </c>
-      <c r="B96" t="n">
-        <v>2384978.3498</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>540643.4797</v>
-      </c>
-      <c r="B97" t="n">
-        <v>2385008.3498</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>540755.9797</v>
-      </c>
-      <c r="B98" t="n">
-        <v>2385120.8498</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>540650.9797</v>
-      </c>
-      <c r="B99" t="n">
-        <v>2385120.8498</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>540673.4797</v>
-      </c>
-      <c r="B100" t="n">
-        <v>2385060.8498</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>540673.4797</v>
-      </c>
-      <c r="B101" t="n">
-        <v>2385008.3498</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>540680.9797</v>
-      </c>
-      <c r="B102" t="n">
-        <v>2385128.3498</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>540785.9797</v>
-      </c>
-      <c r="B103" t="n">
-        <v>2385128.3498</v>
+        <v>2385020.3498</v>
       </c>
     </row>
   </sheetData>
